--- a/docs/results_table.xlsx
+++ b/docs/results_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abbefc71a0c20558/Documenten/Simonbacku/Programming/heuristiek/Ticket-To-Ride/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F4311E9490C2D8C8EC7FC3C64D5A782C4FC2D5BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E1AABC-C82E-4ED8-A52E-32E7FCA7F42A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F4311E9490C2D8C8EC7FC3C64D5A782C4FC2D5BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0EDCA5B-F275-4B63-AEF9-0197F99A2C61}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="1920" windowWidth="9240" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -589,32 +589,32 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>6165.99</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>6165.99</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6050.45</v>
+      </c>
+      <c r="D9">
+        <v>6605</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6050.45</v>
-      </c>
-      <c r="D10">
-        <v>6605</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
